--- a/results/metrics/kyoto.xlsx
+++ b/results/metrics/kyoto.xlsx
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>phi</t>
+          <t>φ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>M0</t>
+          <t>Ηo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mw</t>
+          <t>Ηw</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>ĩ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>k̅</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
